--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC0426-F77E-4085-BB7C-1D97EE615F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9440023-8785-4B31-AD37-7D1C8846D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommonCollectionEvent!$B$1:$B$50</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,42 +98,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불멸석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천계꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>co1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>co5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lastexchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>co0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요괴불꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +130,85 @@
   </si>
   <si>
     <t>CommonTableEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co0_1</t>
+  </si>
+  <si>
+    <t>co0_2</t>
+  </si>
+  <si>
+    <t>co0_3</t>
+  </si>
+  <si>
+    <t>co0_4</t>
+  </si>
+  <si>
+    <t>co0_5</t>
+  </si>
+  <si>
+    <t>어린이날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한가위 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은토끼 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +232,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,17 +282,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="강조색2" xfId="2" builtinId="33"/>
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,13 +665,13 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -598,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -627,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -656,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -685,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -714,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -743,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -769,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -795,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -821,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -847,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -873,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -902,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -928,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -954,41 +1053,44 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>30</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>7000000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="b">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1012,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1038,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1064,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1090,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1116,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1142,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1153,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1168,7 +1270,7 @@
         <v>500000</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1177,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1203,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1229,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1255,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1281,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1307,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1333,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1359,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1370,10 +1472,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>9001</v>
       </c>
       <c r="C31">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1385,7 +1487,7 @@
         <v>500000</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1394,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1420,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1446,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1456,7 +1558,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>1262</v>
       </c>
       <c r="C34">
@@ -1472,44 +1574,35 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>88</v>
-      </c>
-      <c r="C35">
-        <v>300</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>500000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>200</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" t="b">
+      <c r="B35" s="3">
+        <v>1216</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="I35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1518,31 +1611,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9001</v>
+        <v>1291</v>
       </c>
       <c r="C36">
-        <v>300</v>
-      </c>
-      <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F36">
-        <v>500000</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36">
-        <v>200</v>
+        <v>7000000</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -1553,22 +1637,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1278</v>
+        <v>9008</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
       <c r="F37">
-        <v>7000000</v>
+        <v>500000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>300</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1579,22 +1672,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1270</v>
+        <v>9010</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
       <c r="F38">
-        <v>7000000</v>
+        <v>500000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38">
+        <v>300</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -1605,22 +1707,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1264</v>
+        <v>9016</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
       <c r="F39">
-        <v>7000000</v>
+        <v>500000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39">
+        <v>300</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -1631,13 +1742,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>33</v>
       </c>
       <c r="F40">
         <v>7000000</v>
@@ -1646,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -1657,13 +1768,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>34</v>
       </c>
       <c r="F41">
         <v>7000000</v>
@@ -1672,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -1683,13 +1794,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>35</v>
       </c>
       <c r="F42">
         <v>7000000</v>
@@ -1698,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -1709,37 +1820,240 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9008</v>
+        <v>1253</v>
       </c>
       <c r="C43">
-        <v>400</v>
-      </c>
-      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F43">
-        <v>500000</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43">
-        <v>1000</v>
+        <v>7000000</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1255</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>7000000</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1256</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>7000000</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1263</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>7000000</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1264</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>7000000</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1270</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>7000000</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1277</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>7000000</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1284</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>7000000</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>7000000</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B55" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9440023-8785-4B31-AD37-7D1C8846D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47330FF-26EC-4C8C-8594-BAFF83D1F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
